--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>COVID19 Outcome</t>
+    <t>Patient Outcome</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T08:26:45+00:00</t>
+    <t>2023-03-09T08:45:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T08:45:51+00:00</t>
+    <t>2023-03-09T09:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:35:00+00:00</t>
+    <t>2023-03-09T09:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:59:00+00:00</t>
+    <t>2023-03-09T10:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:20:35+00:00</t>
+    <t>2023-03-09T12:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:47:13+00:00</t>
+    <t>2023-03-09T12:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:59:12+00:00</t>
+    <t>2023-03-09T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:28:42+00:00</t>
+    <t>2023-03-09T14:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:12:04+00:00</t>
+    <t>2023-03-09T14:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:14:51+00:00</t>
+    <t>2023-03-09T14:27:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:27:56+00:00</t>
+    <t>2023-03-09T14:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:36:45+00:00</t>
+    <t>2023-03-13T06:27:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T06:27:04+00:00</t>
+    <t>2023-03-13T06:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T06:32:29+00:00</t>
+    <t>2023-04-04T10:46:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:46:14+00:00</t>
+    <t>2023-04-04T11:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
